--- a/biology/Botanique/Pâturin_des_marais/Pâturin_des_marais.xlsx
+++ b/biology/Botanique/Pâturin_des_marais/Pâturin_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_des_marais</t>
+          <t>Pâturin_des_marais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poa palustris
 Le Pâturin des marais (Poa palustris) est une plante vivace herbacée fourragère du genre Poa, de la famille des Poaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_des_marais</t>
+          <t>Pâturin_des_marais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La plante mesure de 50 à 120 cm ; elle est glabre, à souche fibreuse ou un peu traçante. Les tiges dressées ou ascendantes, grêles, sont cylindracées, lisses. Les feuilles planes, acuminées, sont rudes, à gaines lisses, la supérieure étant plus longue que le limbe foliaire. La ligule est ovale ou oblongue[1].
-Appareil reproducteur
-La panicule est grande, pyramidale, étalée-diffuse, à rameaux inférieurs réunis par 4 à 7 en demi-verticilles. Les épillets sont ovales, à 2 à 4 fleurs réunies à la base par des poils laineux. Les glumes sont inégales et trinervées. La glumelle inférieure est lancéolée, ciliée dans le bas sur la carène et les bords, à cinq nervures peu distinctes. La floraison se déroule de juin à août[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante mesure de 50 à 120 cm ; elle est glabre, à souche fibreuse ou un peu traçante. Les tiges dressées ou ascendantes, grêles, sont cylindracées, lisses. Les feuilles planes, acuminées, sont rudes, à gaines lisses, la supérieure étant plus longue que le limbe foliaire. La ligule est ovale ou oblongue.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_des_marais</t>
+          <t>Pâturin_des_marais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette graminée affectionne les prairies humides ou marécageuses, bord des eaux, tourbières ou chemins forestiers humides, roselières[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La panicule est grande, pyramidale, étalée-diffuse, à rameaux inférieurs réunis par 4 à 7 en demi-verticilles. Les épillets sont ovales, à 2 à 4 fleurs réunies à la base par des poils laineux. Les glumes sont inégales et trinervées. La glumelle inférieure est lancéolée, ciliée dans le bas sur la carène et les bords, à cinq nervures peu distinctes. La floraison se déroule de juin à août.
 </t>
         </is>
       </c>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_des_marais</t>
+          <t>Pâturin_des_marais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce à répartition circumboréale, présente dans toute l'Europe centrale et orientale et dont la limite occidentale se situe en France et en Grande-Bretagne ; elle descend dans le sud jusqu'en Crète. Elle se trouve aussi dans tout le centre et le nord de l'Asie et en Amérique du Nord. En France, elle est surtout présente dans le nord-est (Alsace, Franche Comté, Rhône-Alpes et Lorraine), puis ponctuellement en Île-de-France, Centre, Pays-de-la-Loire et dans le sud, aux abords des Pyrénées[2].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette graminée affectionne les prairies humides ou marécageuses, bord des eaux, tourbières ou chemins forestiers humides, roselières.
 </t>
         </is>
       </c>
@@ -590,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_des_marais</t>
+          <t>Pâturin_des_marais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pâturin des marais peut servir de fourrage pour les animaux domestiques. Il peut également être planté en terrains humides pour restaurer les habitats et stabiliser les sols. La plante pousse effectivement facilement sur les sols nus et/ou dégradés[3].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce à répartition circumboréale, présente dans toute l'Europe centrale et orientale et dont la limite occidentale se situe en France et en Grande-Bretagne ; elle descend dans le sud jusqu'en Crète. Elle se trouve aussi dans tout le centre et le nord de l'Asie et en Amérique du Nord. En France, elle est surtout présente dans le nord-est (Alsace, Franche Comté, Rhône-Alpes et Lorraine), puis ponctuellement en Île-de-France, Centre, Pays-de-la-Loire et dans le sud, aux abords des Pyrénées.
 </t>
         </is>
       </c>
@@ -621,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_des_marais</t>
+          <t>Pâturin_des_marais</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,12 +661,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pâturin des marais peut servir de fourrage pour les animaux domestiques. Il peut également être planté en terrains humides pour restaurer les habitats et stabiliser les sols. La plante pousse effectivement facilement sur les sols nus et/ou dégradés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pâturin_des_marais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A2turin_des_marais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Paneion triflorum Lunell, 1915
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paneion triflorum Lunell, 1915
 Poa adspersa Drejer, 1838
 Poa angustifolia var. effusa (Kit.) Schur, 1853
 Poa angustifolia var. effusa Rchb., 1834
@@ -683,7 +743,7 @@
 Poa tanfiljewii Roshev., 1936
 Poa triflora Gilib., 1792
 Poa triflora Scribn.
-Poa volhynensis Klokov, 1950 [4]</t>
+Poa volhynensis Klokov, 1950 </t>
         </is>
       </c>
     </row>
